--- a/data/trans_camb/P19C08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P19C08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
     </row>
@@ -685,27 +685,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 4,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 1,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 1,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 1,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 0,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 0,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 1,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 0,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 0,55</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>219,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>148,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,46%</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,3; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 1,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 0,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 0,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 0,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 0,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 0,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 0,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,11</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>208,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,48%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,44%</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 1,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 0,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 2,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; -0,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 0,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 0,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 0,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 1,1</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,24%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,16%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,71%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,35; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,3; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,98; 584,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,68; 340,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 229,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,27; 437,67</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 0,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 0,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 0,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 0,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; -0,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 0,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 0,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; -0,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 0,29</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,14%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,47%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,79%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,82%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,48%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,16%</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,61; 351,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,74; 216,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1680,22 +1680,22 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,77; 90,74</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,31; 113,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -46,05</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,87; 80,33</t>
         </is>
       </c>
     </row>
@@ -1712,42 +1712,42 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 0,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 0,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 0,54</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 0,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,19</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 0,46</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; -0,05</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 0,26</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,63%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,61%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,75%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,98%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,28%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,48; 342,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,41; 50,28</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,05; 268,7</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,55; 144,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,73; 17,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,33; 64,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,08; 149,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,2; -15,72</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,94; 91,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,1</t>
+          <t>-0,13; 1,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,97</t>
+          <t>-0,63; 0,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,86</t>
+          <t>-0,17; 1,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,78</t>
+          <t>-0,27; 1,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,38</t>
+          <t>-0,71; 0,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 0,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,02</t>
+          <t>0,08; 1,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>-0,46; 0,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,79</t>
+          <t>-0,33; 0,63</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>354,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>247,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>192,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>245,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>45,78%</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 1223,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,6; 756,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,11</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,56</t>
+          <t>-0,14; 1,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,0</t>
+          <t>-0,26; 0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,31</t>
+          <t>-0,56; 0,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,91</t>
+          <t>-0,48; 0,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,62</t>
+          <t>-0,74; 0,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 0,23</t>
+          <t>-0,73; 0,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 1,36</t>
+          <t>-0,17; 0,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,27</t>
+          <t>-0,41; 0,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,55</t>
+          <t>-0,58; 0,08</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>219,25%</t>
+          <t>208,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>148,41%</t>
+          <t>-66,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>137,73%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-40,82%</t>
+          <t>-51,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-57,24%</t>
+          <t>-35,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>164,0%</t>
+          <t>101,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-61,58%</t>
+          <t>-34,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>-49,78%</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,3; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>0,22</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,34</t>
+          <t>-0,45; 1,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,44</t>
+          <t>-1,07; 0,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,11</t>
+          <t>-0,4; 2,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,75</t>
+          <t>-1,43; -0,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,14</t>
+          <t>-0,79; 0,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,27</t>
+          <t>-0,89; 0,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 0,75</t>
+          <t>-0,58; 0,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,22</t>
+          <t>-0,74; 0,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,11</t>
+          <t>-0,44; 0,95</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>208,14%</t>
+          <t>82,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>-64,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-57,35%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>60,05%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-51,89%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-33,21%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>101,86%</t>
+          <t>-8,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-34,48%</t>
+          <t>-37,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-41,44%</t>
+          <t>44,03%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,35; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,49; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,13; 381,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,68; 340,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 229,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,6; 363,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,74</t>
+          <t>-0,87; 0,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,21</t>
+          <t>-1,01; 0,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,33</t>
+          <t>-0,89; 0,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; -0,14</t>
+          <t>-1,08; 0,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,85</t>
+          <t>-1,82; -0,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,84</t>
+          <t>-1,29; 0,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,64</t>
+          <t>-0,73; 0,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,37</t>
+          <t>-1,28; -0,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,1</t>
+          <t>-0,88; 0,22</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>82,43%</t>
+          <t>-29,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-64,89%</t>
+          <t>-73,45%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>-30,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>-9,79%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-8,84%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>-39,57%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,24%</t>
+          <t>-15,82%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-37,16%</t>
+          <t>-91,48%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>60,71%</t>
+          <t>-36,35%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-70,35; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-73,3; —</t>
+          <t>-94,03; 305,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,74; 216,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,29 +1464,29 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-83,98; 584,0</t>
+          <t>-81,52; 83,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-79,68; 340,08</t>
+          <t>-65,31; 113,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 229,0</t>
+          <t>-100,0; -46,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-55,27; 437,67</t>
+          <t>-77,13; 66,23</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,46</t>
+          <t>-0,06; 0,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,03</t>
+          <t>-0,49; 0,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,44</t>
+          <t>-0,22; 0,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,79</t>
+          <t>-0,29; 0,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,82; -0,37</t>
+          <t>-0,68; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,42</t>
+          <t>-0,53; 0,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,44</t>
+          <t>-0,11; 0,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; -0,31</t>
+          <t>-0,5; -0,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,29</t>
+          <t>-0,27; 0,22</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-29,14%</t>
+          <t>81,63%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-73,45%</t>
+          <t>-54,61%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-23,47%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-9,79%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-61,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-35,29%</t>
+          <t>-30,04%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-91,48%</t>
+          <t>-59,28%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-31,16%</t>
+          <t>-7,8%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,48; 342,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,41; 50,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-93,61; 351,98</t>
+          <t>-49,4; 246,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-71,74; 216,97</t>
+          <t>-42,55; 144,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,73; 17,98</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-79,77; 90,74</t>
+          <t>-66,9; 51,63</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-65,31; 113,77</t>
+          <t>-20,08; 149,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -46,05</t>
+          <t>-85,2; -15,72</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-74,87; 80,33</t>
+          <t>-47,82; 68,19</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 0,68</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 0,05</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 0,54</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 0,46</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 0,0</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 0,19</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,11; 0,46</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; -0,05</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 0,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>81,63%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-54,61%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>43,93%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>10,88%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-61,75%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-23,98%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>36,46%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-59,28%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>0,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-22,48; 342,78</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-91,41; 50,28</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-46,05; 268,7</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-42,55; 144,21</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-89,73; 17,98</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-64,33; 64,15</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-20,08; 149,96</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-85,2; -15,72</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-42,94; 91,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P19C08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,02; 1,73</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 0,4</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-0,13; 1,6</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 0,35</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,17; 1,53</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,85</t>
+          <t>-0,23; 1,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,78</t>
+          <t>-0,58; 0,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,18</t>
+          <t>-1,02; 0,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,39</t>
+          <t>0,1; 1,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,48</t>
+          <t>-0,47; 0,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,63</t>
+          <t>-0,35; 0,63</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,88; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 1223,9</t>
+          <t>-15,48; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-77,6; 756,43</t>
+          <t>-79,54; —</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,34</t>
+          <t>-0,14; 1,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 0,07</t>
+          <t>-0,65; 0,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,75</t>
+          <t>-0,44; 0,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,14</t>
+          <t>-0,73; 0,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,25</t>
+          <t>-0,84; 0,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 0,75</t>
+          <t>-0,17; 0,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,22</t>
+          <t>-0,43; 0,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,08</t>
+          <t>-0,47; 0,1</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,89; 847,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,74</t>
+          <t>-0,57; 1,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,21</t>
+          <t>-1,07; 0,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,32</t>
+          <t>-0,35; 1,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; -0,14</t>
+          <t>-1,45; -0,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,85</t>
+          <t>-0,75; 0,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,62</t>
+          <t>-0,83; 0,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,64</t>
+          <t>-0,65; 0,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,37</t>
+          <t>-0,8; 0,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,95</t>
+          <t>-0,42; 0,96</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,35; —</t>
+          <t>-81,81; 992,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,49; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,13; 381,32</t>
+          <t>-85,11; 472,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-79,68; 340,08</t>
+          <t>-81,38; 281,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 229,0</t>
+          <t>-90,77; 280,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,6; 363,89</t>
+          <t>-58,36; 357,02</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,46</t>
+          <t>-0,89; 0,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,03</t>
+          <t>-0,95; 0,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,34</t>
+          <t>-0,81; 0,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,79</t>
+          <t>-1,04; 0,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; -0,37</t>
+          <t>-1,94; -0,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,36</t>
+          <t>-1,42; 0,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,44</t>
+          <t>-0,68; 0,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; -0,31</t>
+          <t>-1,29; -0,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,22</t>
+          <t>-0,85; 0,2</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 374,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-94,03; 305,92</t>
+          <t>-91,49; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-71,74; 216,97</t>
+          <t>-68,08; 211,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-81,52; 83,47</t>
+          <t>-83,08; 95,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-65,31; 113,77</t>
+          <t>-65,39; 112,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -46,05</t>
+          <t>-100,0; -33,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-77,13; 66,23</t>
+          <t>-75,15; 54,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 0,68</t>
+          <t>-0,08; 0,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,05</t>
+          <t>-0,48; 0,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 0,49</t>
+          <t>-0,24; 0,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,46</t>
+          <t>-0,33; 0,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,0</t>
+          <t>-0,66; -0,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,15</t>
+          <t>-0,51; 0,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,46</t>
+          <t>-0,1; 0,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; -0,05</t>
+          <t>-0,48; -0,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,22</t>
+          <t>-0,27; 0,21</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 342,78</t>
+          <t>-29,22; 394,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-91,41; 50,28</t>
+          <t>-92,62; 58,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-49,4; 246,07</t>
+          <t>-50,8; 280,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,55; 144,21</t>
+          <t>-45,23; 130,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-89,73; 17,98</t>
+          <t>-90,01; 5,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-66,9; 51,63</t>
+          <t>-66,55; 49,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 149,96</t>
+          <t>-20,57; 137,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-85,2; -15,72</t>
+          <t>-83,67; -10,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-47,82; 68,19</t>
+          <t>-49,04; 65,62</t>
         </is>
       </c>
     </row>
